--- a/to_analyze/models_stats.xlsx
+++ b/to_analyze/models_stats.xlsx
@@ -40,16 +40,16 @@
     <t>exprmt</t>
   </si>
   <si>
-    <t>20201021120755</t>
-  </si>
-  <si>
-    <t>20201021122313</t>
-  </si>
-  <si>
-    <t>Modelo Propuesto</t>
-  </si>
-  <si>
-    <t>Modelo Tendencia</t>
+    <t>20201022125811</t>
+  </si>
+  <si>
+    <t>20201022133235</t>
+  </si>
+  <si>
+    <t>Modelo 1</t>
+  </si>
+  <si>
+    <t>Modelo 2</t>
   </si>
 </sst>
 </file>
@@ -447,22 +447,22 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0.9868723691772361</v>
+        <v>0.9808763624024955</v>
       </c>
       <c r="D2">
-        <v>0.9734082088316529</v>
+        <v>0.9618228801706279</v>
       </c>
       <c r="E2">
-        <v>0.02506467700004578</v>
+        <v>0.04401490464806557</v>
       </c>
       <c r="F2">
-        <v>0.08806805312633514</v>
+        <v>0.1027474105358124</v>
       </c>
       <c r="G2">
-        <v>34.06677627563477</v>
+        <v>39.92609024047852</v>
       </c>
       <c r="H2">
-        <v>0.1583182811737061</v>
+        <v>0.2097972929477692</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -473,22 +473,22 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0.9838937060905131</v>
+        <v>0.9830146984935081</v>
       </c>
       <c r="D3">
-        <v>0.9675942293480361</v>
+        <v>0.9662402348174999</v>
       </c>
       <c r="E3">
-        <v>0.01585082150995731</v>
+        <v>0.04428642988204956</v>
       </c>
       <c r="F3">
-        <v>0.06908663362264633</v>
+        <v>0.1029814854264259</v>
       </c>
       <c r="G3">
-        <v>25.83440971374512</v>
+        <v>47.41003799438477</v>
       </c>
       <c r="H3">
-        <v>0.1259000450372696</v>
+        <v>0.2104434072971344</v>
       </c>
     </row>
   </sheetData>

--- a/to_analyze/models_stats.xlsx
+++ b/to_analyze/models_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -40,16 +40,34 @@
     <t>exprmt</t>
   </si>
   <si>
-    <t>20201022125811</t>
-  </si>
-  <si>
-    <t>20201022133235</t>
-  </si>
-  <si>
-    <t>Modelo 1</t>
-  </si>
-  <si>
-    <t>Modelo 2</t>
+    <t>20201112182546</t>
+  </si>
+  <si>
+    <t>20201112191915</t>
+  </si>
+  <si>
+    <t>20201112211319</t>
+  </si>
+  <si>
+    <t>20201113100440</t>
+  </si>
+  <si>
+    <t>20201113113855</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Adadelta</t>
+  </si>
+  <si>
+    <t>Adagrad</t>
+  </si>
+  <si>
+    <t>RMSprop</t>
   </si>
 </sst>
 </file>
@@ -407,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,25 +462,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.9808763624024955</v>
+        <v>0.9852754721633253</v>
       </c>
       <c r="D2">
-        <v>0.9618228801706279</v>
+        <v>0.9626816106192172</v>
       </c>
       <c r="E2">
-        <v>0.04401490464806557</v>
+        <v>0.03677069395780563</v>
       </c>
       <c r="F2">
-        <v>0.1027474105358124</v>
+        <v>0.09244159609079361</v>
       </c>
       <c r="G2">
-        <v>39.92609024047852</v>
+        <v>42.64235687255859</v>
       </c>
       <c r="H2">
-        <v>0.2097972929477692</v>
+        <v>0.19175685942173</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,25 +488,103 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0.9230913529641925</v>
+      </c>
+      <c r="D3">
+        <v>0.8465428642477922</v>
+      </c>
+      <c r="E3">
+        <v>0.172332301735878</v>
+      </c>
+      <c r="F3">
+        <v>0.2975706160068512</v>
+      </c>
+      <c r="G3">
+        <v>217.7219543457031</v>
+      </c>
+      <c r="H3">
+        <v>0.4151292443275452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.7377006970072352</v>
+      </c>
+      <c r="D4">
+        <v>0.3625025899857999</v>
+      </c>
+      <c r="E4">
+        <v>0.6441806554794312</v>
+      </c>
+      <c r="F4">
+        <v>0.6474918127059937</v>
+      </c>
+      <c r="G4">
+        <v>163.7093048095703</v>
+      </c>
+      <c r="H4">
+        <v>0.8026086688041687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>0.9830146984935081</v>
-      </c>
-      <c r="D3">
-        <v>0.9662402348174999</v>
-      </c>
-      <c r="E3">
-        <v>0.04428642988204956</v>
-      </c>
-      <c r="F3">
-        <v>0.1029814854264259</v>
-      </c>
-      <c r="G3">
-        <v>47.41003799438477</v>
-      </c>
-      <c r="H3">
-        <v>0.2104434072971344</v>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0.9598199016959312</v>
+      </c>
+      <c r="D5">
+        <v>0.8956371885671682</v>
+      </c>
+      <c r="E5">
+        <v>0.08257601410150528</v>
+      </c>
+      <c r="F5">
+        <v>0.166132465004921</v>
+      </c>
+      <c r="G5">
+        <v>167.3847351074219</v>
+      </c>
+      <c r="H5">
+        <v>0.2873604297637939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.9835408011243352</v>
+      </c>
+      <c r="D6">
+        <v>0.9632015425733913</v>
+      </c>
+      <c r="E6">
+        <v>0.03222670033574104</v>
+      </c>
+      <c r="F6">
+        <v>0.07934755831956863</v>
+      </c>
+      <c r="G6">
+        <v>45.68134307861328</v>
+      </c>
+      <c r="H6">
+        <v>0.1795179694890976</v>
       </c>
     </row>
   </sheetData>

--- a/to_analyze/models_stats.xlsx
+++ b/to_analyze/models_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -40,34 +40,16 @@
     <t>exprmt</t>
   </si>
   <si>
-    <t>20201112182546</t>
-  </si>
-  <si>
-    <t>20201112191915</t>
-  </si>
-  <si>
-    <t>20201112211319</t>
-  </si>
-  <si>
-    <t>20201113100440</t>
-  </si>
-  <si>
-    <t>20201113113855</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>Adadelta</t>
-  </si>
-  <si>
-    <t>Adagrad</t>
-  </si>
-  <si>
-    <t>RMSprop</t>
+    <t>20201020175935</t>
+  </si>
+  <si>
+    <t>20201020181607</t>
+  </si>
+  <si>
+    <t>20201020194811</t>
+  </si>
+  <si>
+    <t>['ENERGY', 'IRRAD4', 'TEMP1', 'WS1']</t>
   </si>
 </sst>
 </file>
@@ -425,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,25 +444,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.9852754721633253</v>
+        <v>0.9735465083959474</v>
       </c>
       <c r="D2">
-        <v>0.9626816106192172</v>
+        <v>0.9430327982783886</v>
       </c>
       <c r="E2">
-        <v>0.03677069395780563</v>
+        <v>0.03140745311975479</v>
       </c>
       <c r="F2">
-        <v>0.09244159609079361</v>
+        <v>0.09498195350170135</v>
       </c>
       <c r="G2">
-        <v>42.64235687255859</v>
+        <v>36.93864822387695</v>
       </c>
       <c r="H2">
-        <v>0.19175685942173</v>
+        <v>0.1772214770317078</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -488,25 +470,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.9230913529641925</v>
+        <v>0.9847749210709679</v>
       </c>
       <c r="D3">
-        <v>0.8465428642477922</v>
+        <v>0.9697641828472569</v>
       </c>
       <c r="E3">
-        <v>0.172332301735878</v>
+        <v>0.04023393243551254</v>
       </c>
       <c r="F3">
-        <v>0.2975706160068512</v>
+        <v>0.1070039123296738</v>
       </c>
       <c r="G3">
-        <v>217.7219543457031</v>
+        <v>44.78425598144531</v>
       </c>
       <c r="H3">
-        <v>0.4151292443275452</v>
+        <v>0.2005839794874191</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -514,77 +496,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.7377006970072352</v>
+        <v>0.9821611113584658</v>
       </c>
       <c r="D4">
-        <v>0.3625025899857999</v>
+        <v>0.9643422594009303</v>
       </c>
       <c r="E4">
-        <v>0.6441806554794312</v>
+        <v>0.025902409106493</v>
       </c>
       <c r="F4">
-        <v>0.6474918127059937</v>
+        <v>0.09010013192892075</v>
       </c>
       <c r="G4">
-        <v>163.7093048095703</v>
+        <v>36.94604873657227</v>
       </c>
       <c r="H4">
-        <v>0.8026086688041687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>0.9598199016959312</v>
-      </c>
-      <c r="D5">
-        <v>0.8956371885671682</v>
-      </c>
-      <c r="E5">
-        <v>0.08257601410150528</v>
-      </c>
-      <c r="F5">
-        <v>0.166132465004921</v>
-      </c>
-      <c r="G5">
-        <v>167.3847351074219</v>
-      </c>
-      <c r="H5">
-        <v>0.2873604297637939</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.9835408011243352</v>
-      </c>
-      <c r="D6">
-        <v>0.9632015425733913</v>
-      </c>
-      <c r="E6">
-        <v>0.03222670033574104</v>
-      </c>
-      <c r="F6">
-        <v>0.07934755831956863</v>
-      </c>
-      <c r="G6">
-        <v>45.68134307861328</v>
-      </c>
-      <c r="H6">
-        <v>0.1795179694890976</v>
+        <v>0.1609422564506531</v>
       </c>
     </row>
   </sheetData>

--- a/to_analyze/models_stats.xlsx
+++ b/to_analyze/models_stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -40,16 +40,10 @@
     <t>exprmt</t>
   </si>
   <si>
-    <t>20201020175935</t>
-  </si>
-  <si>
-    <t>20201020181607</t>
-  </si>
-  <si>
-    <t>20201020194811</t>
-  </si>
-  <si>
-    <t>['ENERGY', 'IRRAD4', 'TEMP1', 'WS1']</t>
+    <t>20201204132752</t>
+  </si>
+  <si>
+    <t>Modelo_1</t>
   </si>
 </sst>
 </file>
@@ -407,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,77 +438,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0.9735465083959474</v>
+        <v>0.9525051712983694</v>
       </c>
       <c r="D2">
-        <v>0.9430327982783886</v>
+        <v>0.906126138241057</v>
       </c>
       <c r="E2">
-        <v>0.03140745311975479</v>
+        <v>0.06365367770195007</v>
       </c>
       <c r="F2">
-        <v>0.09498195350170135</v>
+        <v>0.1218311637639999</v>
       </c>
       <c r="G2">
-        <v>36.93864822387695</v>
+        <v>69.51853942871094</v>
       </c>
       <c r="H2">
-        <v>0.1772214770317078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>0.9847749210709679</v>
-      </c>
-      <c r="D3">
-        <v>0.9697641828472569</v>
-      </c>
-      <c r="E3">
-        <v>0.04023393243551254</v>
-      </c>
-      <c r="F3">
-        <v>0.1070039123296738</v>
-      </c>
-      <c r="G3">
-        <v>44.78425598144531</v>
-      </c>
-      <c r="H3">
-        <v>0.2005839794874191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0.9821611113584658</v>
-      </c>
-      <c r="D4">
-        <v>0.9643422594009303</v>
-      </c>
-      <c r="E4">
-        <v>0.025902409106493</v>
-      </c>
-      <c r="F4">
-        <v>0.09010013192892075</v>
-      </c>
-      <c r="G4">
-        <v>36.94604873657227</v>
-      </c>
-      <c r="H4">
-        <v>0.1609422564506531</v>
+        <v>0.2522968053817749</v>
       </c>
     </row>
   </sheetData>
